--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value352.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value352.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.056923715764157</v>
+        <v>0.876980721950531</v>
       </c>
       <c r="B1">
-        <v>2.261831449004793</v>
+        <v>2.671411275863647</v>
       </c>
       <c r="C1">
-        <v>3.823360156460209</v>
+        <v>4.680989265441895</v>
       </c>
       <c r="D1">
-        <v>1.502898396637908</v>
+        <v>2.209546327590942</v>
       </c>
       <c r="E1">
-        <v>0.7670223305672328</v>
+        <v>1.303865313529968</v>
       </c>
     </row>
   </sheetData>
